--- a/Tests/Validation/Wheat/data/FAR VIC W22-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR VIC W22-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -790,7 +791,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -843,7 +844,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -975,7 +976,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1008,7 +1009,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1041,7 +1042,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1083,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1135,7 +1136,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1201,7 +1202,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1234,7 +1235,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1267,7 +1268,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1300,7 +1301,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1374,7 +1375,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1427,7 +1428,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1460,7 +1461,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1493,7 +1494,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1526,7 +1527,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1559,7 +1560,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1592,7 +1593,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1658,7 +1659,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1699,7 +1700,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1752,7 +1753,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1785,7 +1786,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1818,7 +1819,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1851,7 +1852,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1884,7 +1885,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1917,7 +1918,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1950,7 +1951,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1983,7 +1984,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2025,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2077,7 +2078,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2143,7 +2144,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2176,7 +2177,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2242,7 +2243,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2275,7 +2276,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2316,7 +2317,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2369,7 +2370,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2402,7 +2403,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2435,7 +2436,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2468,7 +2469,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2501,7 +2502,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2534,7 +2535,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2567,7 +2568,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2600,7 +2601,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2633,7 +2634,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2674,7 +2675,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2727,7 +2728,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2760,7 +2761,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2793,7 +2794,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2826,7 +2827,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2859,7 +2860,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2892,7 +2893,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2925,7 +2926,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2958,7 +2959,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2991,7 +2992,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -3032,7 +3033,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3085,7 +3086,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3118,7 +3119,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3151,7 +3152,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3184,7 +3185,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3217,7 +3218,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3250,7 +3251,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3283,7 +3284,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3316,7 +3317,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3349,7 +3350,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3390,7 +3391,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3443,7 +3444,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3476,7 +3477,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3509,7 +3510,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3542,7 +3543,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3575,7 +3576,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3608,7 +3609,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3641,7 +3642,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3674,7 +3675,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3715,7 +3716,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3768,7 +3769,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3801,7 +3802,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3834,7 +3835,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3867,7 +3868,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3900,7 +3901,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3933,7 +3934,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3966,7 +3967,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3999,7 +4000,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4040,7 +4041,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4093,7 +4094,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4126,7 +4127,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4159,7 +4160,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4192,7 +4193,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4225,7 +4226,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4258,7 +4259,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4291,7 +4292,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4324,7 +4325,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4365,7 +4366,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C108" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR VIC W22-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR VIC W22-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +486,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -717,7 +716,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -750,7 +749,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -791,7 +790,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +843,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -877,7 +876,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -910,7 +909,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -943,7 +942,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -976,7 +975,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1009,7 +1008,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1042,7 +1041,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1082,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1136,7 +1135,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1169,7 +1168,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1202,7 +1201,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1235,7 +1234,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1268,7 +1267,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1301,7 +1300,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1334,7 +1333,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1375,7 +1374,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1428,7 +1427,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1461,7 +1460,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1494,7 +1493,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1527,7 +1526,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1560,7 +1559,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1593,7 +1592,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1626,7 +1625,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1659,7 +1658,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1700,7 +1699,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1753,7 +1752,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1786,7 +1785,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1819,7 +1818,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1852,7 +1851,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1885,7 +1884,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1918,7 +1917,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1951,7 +1950,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1984,7 +1983,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2025,7 +2024,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2078,7 +2077,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2111,7 +2110,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2144,7 +2143,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2177,7 +2176,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2210,7 +2209,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2243,7 +2242,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2276,7 +2275,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2317,7 +2316,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2370,7 +2369,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2403,7 +2402,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2436,7 +2435,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2469,7 +2468,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2502,7 +2501,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2535,7 +2534,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2568,7 +2567,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2601,7 +2600,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2634,7 +2633,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2675,7 +2674,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2728,7 +2727,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2761,7 +2760,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2794,7 +2793,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2827,7 +2826,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2860,7 +2859,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2893,7 +2892,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2926,7 +2925,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2959,7 +2958,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2992,7 +2991,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -3033,7 +3032,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3086,7 +3085,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3119,7 +3118,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3152,7 +3151,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3185,7 +3184,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3218,7 +3217,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3251,7 +3250,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3284,7 +3283,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3317,7 +3316,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3350,7 +3349,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3391,7 +3390,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3444,7 +3443,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3477,7 +3476,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3510,7 +3509,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3543,7 +3542,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3576,7 +3575,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3609,7 +3608,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3642,7 +3641,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3675,7 +3674,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3716,7 +3715,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3769,7 +3768,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3802,7 +3801,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3835,7 +3834,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3868,7 +3867,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3901,7 +3900,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3934,7 +3933,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3967,7 +3966,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4000,7 +3999,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4041,7 +4040,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4094,7 +4093,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4127,7 +4126,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44770</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4160,7 +4159,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4193,7 +4192,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>44809</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4226,7 +4225,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44838</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4259,7 +4258,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4292,7 +4291,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4325,7 +4324,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4366,7 +4365,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="C108" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR VIC W22-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR VIC W22-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -790,7 +791,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -843,7 +844,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -975,7 +976,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1008,7 +1009,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1041,7 +1042,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1083,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1135,7 +1136,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1201,7 +1202,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1234,7 +1235,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1267,7 +1268,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1300,7 +1301,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1374,7 +1375,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1427,7 +1428,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1460,7 +1461,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1493,7 +1494,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1526,7 +1527,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1559,7 +1560,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1592,7 +1593,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1658,7 +1659,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1699,7 +1700,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1752,7 +1753,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1785,7 +1786,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1818,7 +1819,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1851,7 +1852,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1884,7 +1885,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1917,7 +1918,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1950,7 +1951,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1983,7 +1984,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2025,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2077,7 +2078,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2143,7 +2144,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2176,7 +2177,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2242,7 +2243,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2275,7 +2276,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2316,7 +2317,7 @@
           <t>FAR VIC W22-03-2FungicideSingleNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2369,7 +2370,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2402,7 +2403,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2435,7 +2436,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2468,7 +2469,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2501,7 +2502,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2534,7 +2535,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2567,7 +2568,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2600,7 +2601,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2633,7 +2634,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2674,7 +2675,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2727,7 +2728,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2760,7 +2761,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2793,7 +2794,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2826,7 +2827,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2859,7 +2860,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2892,7 +2893,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2925,7 +2926,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2958,7 +2959,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2991,7 +2992,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -3032,7 +3033,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvScepter</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3085,7 +3086,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44720</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3118,7 +3119,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3151,7 +3152,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3184,7 +3185,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3217,7 +3218,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3250,7 +3251,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3283,7 +3284,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3316,7 +3317,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3349,7 +3350,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3390,7 +3391,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition225CvRockstar</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3443,7 +3444,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3476,7 +3477,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3509,7 +3510,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3542,7 +3543,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3575,7 +3576,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3608,7 +3609,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3641,7 +3642,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3674,7 +3675,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3715,7 +3716,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvRockstar</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3768,7 +3769,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3801,7 +3802,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3834,7 +3835,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3867,7 +3868,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3900,7 +3901,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3933,7 +3934,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3966,7 +3967,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3999,7 +4000,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4040,7 +4041,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvScepter</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4093,7 +4094,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44741</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4126,7 +4127,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44770</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4159,7 +4160,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44792</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4192,7 +4193,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44809</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4225,7 +4226,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44838</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4258,7 +4259,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44872</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4291,7 +4292,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4324,7 +4325,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44929</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4365,7 +4366,7 @@
           <t>FAR VIC W22-03-2FungicideFullNutrition150CvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44934</v>
       </c>
       <c r="C108" t="inlineStr">
